--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="878">
   <si>
     <t>anchor score</t>
   </si>
@@ -286,490 +286,490 @@
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>allegedly</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>coming</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>allegedly</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>podcast</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>coming</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>social</t>
@@ -3016,7 +3016,7 @@
         <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3074,7 +3074,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03323106746716371</v>
+        <v>0.03376584266838985</v>
       </c>
       <c r="C3">
         <v>237</v>
@@ -3095,28 +3095,28 @@
         <v>55</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="K3">
-        <v>0.004873309961737645</v>
+        <v>0.008815073220866885</v>
       </c>
       <c r="L3">
-        <v>545</v>
+        <v>226</v>
       </c>
       <c r="M3">
-        <v>566</v>
+        <v>226</v>
       </c>
       <c r="N3">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2541</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3124,7 +3124,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01997768082527886</v>
+        <v>0.02029917420775676</v>
       </c>
       <c r="C4">
         <v>247</v>
@@ -3145,28 +3145,28 @@
         <v>267</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="K4">
-        <v>0.004473106496276089</v>
+        <v>0.007734750845398433</v>
       </c>
       <c r="L4">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="M4">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>294</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3174,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01348038893679476</v>
+        <v>0.0136973238189921</v>
       </c>
       <c r="C5">
         <v>39</v>
@@ -3195,28 +3195,28 @@
         <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="K5">
-        <v>0.004450492181695256</v>
+        <v>0.004873309961737645</v>
       </c>
       <c r="L5">
-        <v>302</v>
+        <v>545</v>
       </c>
       <c r="M5">
-        <v>309</v>
+        <v>566</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>74</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3224,7 +3224,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01201851932356469</v>
+        <v>0.01221192888213666</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3245,28 +3245,28 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="K6">
-        <v>0.003889538214012042</v>
+        <v>0.004473106496276089</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>186</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3274,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01100669147646887</v>
+        <v>0.01118381806606695</v>
       </c>
       <c r="C7">
         <v>26</v>
@@ -3295,28 +3295,28 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7">
-        <v>0.003816783031853508</v>
+        <v>0.004450492181695256</v>
       </c>
       <c r="L7">
-        <v>404</v>
+        <v>302</v>
       </c>
       <c r="M7">
-        <v>423</v>
+        <v>309</v>
       </c>
       <c r="N7">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O7">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1720</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3324,7 +3324,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01079294896511733</v>
+        <v>0.01096663587602825</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3345,16 +3345,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K8">
-        <v>0.003754599628360888</v>
+        <v>0.003889538214012042</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>102</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3374,7 +3374,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01012468358419126</v>
+        <v>0.01028761634903359</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -3395,28 +3395,28 @@
         <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="K9">
-        <v>0.003597059922144339</v>
+        <v>0.003816783031853508</v>
       </c>
       <c r="L9">
-        <v>113</v>
+        <v>404</v>
       </c>
       <c r="M9">
-        <v>114</v>
+        <v>423</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3424,7 +3424,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.01012468358419126</v>
+        <v>0.01028761634903359</v>
       </c>
       <c r="C10">
         <v>22</v>
@@ -3445,28 +3445,28 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>123</v>
+        <v>253</v>
       </c>
       <c r="K10">
-        <v>0.003499313740620302</v>
+        <v>0.003754599628360888</v>
       </c>
       <c r="L10">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="N10">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>3037</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3474,7 +3474,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009653507025475344</v>
+        <v>0.00980885732131485</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -3495,28 +3495,28 @@
         <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>254</v>
+        <v>133</v>
       </c>
       <c r="K11">
-        <v>0.003469011396830972</v>
+        <v>0.003597059922144339</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3524,7 +3524,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.00940907476834767</v>
+        <v>0.009560491506842959</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -3545,28 +3545,28 @@
         <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>255</v>
+        <v>121</v>
       </c>
       <c r="K12">
-        <v>0.003419094961392427</v>
+        <v>0.003499313740620302</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>57</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3574,7 +3574,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00940907476834767</v>
+        <v>0.009560491506842959</v>
       </c>
       <c r="C13">
         <v>19</v>
@@ -3595,28 +3595,28 @@
         <v>130</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="K13">
-        <v>0.003235517759061482</v>
+        <v>0.003469011396830972</v>
       </c>
       <c r="L13">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="N13">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>622</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3624,7 +3624,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.009158120882681755</v>
+        <v>0.0093054991136919</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3645,16 +3645,16 @@
         <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K14">
-        <v>0.003211680477526169</v>
+        <v>0.003419094961392427</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3674,7 +3674,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008900093719015916</v>
+        <v>0.009043319614910507</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -3695,28 +3695,28 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="K15">
-        <v>0.00320795159441626</v>
+        <v>0.003235517759061482</v>
       </c>
       <c r="L15">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="M15">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O15">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>419</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3724,7 +3724,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008634359172093865</v>
+        <v>0.0087733087008226</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -3745,28 +3745,28 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="K16">
-        <v>0.003150055606339536</v>
+        <v>0.003211680477526169</v>
       </c>
       <c r="L16">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3774,7 +3774,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0083601823196732</v>
+        <v>0.008494719622355641</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3795,28 +3795,28 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>257</v>
+        <v>123</v>
       </c>
       <c r="K17">
-        <v>0.003102778119214221</v>
+        <v>0.00320795159441626</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>88</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3824,7 +3824,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.0083601823196732</v>
+        <v>0.008494719622355641</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -3845,28 +3845,28 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="K18">
-        <v>0.002959302620752243</v>
+        <v>0.003150055606339536</v>
       </c>
       <c r="L18">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="M18">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>676</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3874,7 +3874,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008076703444081085</v>
+        <v>0.008206678826720243</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -3895,16 +3895,16 @@
         <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K19">
-        <v>0.002931849741733411</v>
+        <v>0.003102778119214221</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3924,7 +3924,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007782906181439307</v>
+        <v>0.00790815359407256</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -3945,28 +3945,28 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="K20">
-        <v>0.002872614347902999</v>
+        <v>0.002959302620752243</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>676</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3974,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007782906181439307</v>
+        <v>0.00790815359407256</v>
       </c>
       <c r="C21">
         <v>13</v>
@@ -3995,16 +3995,16 @@
         <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K21">
-        <v>0.002872614347902999</v>
+        <v>0.002931849741733411</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4024,7 +4024,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007782906181439307</v>
+        <v>0.00790815359407256</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -4045,16 +4045,16 @@
         <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K22">
-        <v>0.002812131482604269</v>
+        <v>0.002872614347902999</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4074,7 +4074,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007782906181439307</v>
+        <v>0.00790815359407256</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -4095,16 +4095,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K23">
-        <v>0.002812131482604269</v>
+        <v>0.002872614347902999</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4124,7 +4124,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007477574388432461</v>
+        <v>0.00759790821015542</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -4145,28 +4145,28 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="K24">
-        <v>0.002802285237230224</v>
+        <v>0.002812131482604269</v>
       </c>
       <c r="L24">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>226</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4174,7 +4174,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007477574388432461</v>
+        <v>0.00759790821015542</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="K25">
-        <v>0.002721931607877377</v>
+        <v>0.002812131482604269</v>
       </c>
       <c r="L25">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4224,7 +4224,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00715923241974976</v>
+        <v>0.00727444328264724</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4245,28 +4245,28 @@
         <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>263</v>
+        <v>138</v>
       </c>
       <c r="K26">
-        <v>0.002687084673546016</v>
+        <v>0.002802285237230224</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4274,7 +4274,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.00715923241974976</v>
+        <v>0.00727444328264724</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4295,28 +4295,28 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="K27">
-        <v>0.002687084673546016</v>
+        <v>0.002721931607877377</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4324,7 +4324,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006475769379070399</v>
+        <v>0.006579981525616951</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -4345,16 +4345,16 @@
         <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K28">
-        <v>0.002622326128932443</v>
+        <v>0.002687084673546016</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>117</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4374,7 +4374,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006475769379070399</v>
+        <v>0.006579981525616951</v>
       </c>
       <c r="C29">
         <v>9</v>
@@ -4395,28 +4395,28 @@
         <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>127</v>
+        <v>264</v>
       </c>
       <c r="K29">
-        <v>0.002603002662876138</v>
+        <v>0.002687084673546016</v>
       </c>
       <c r="L29">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4424,7 +4424,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006475769379070399</v>
+        <v>0.006579981525616951</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -4445,16 +4445,16 @@
         <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K30">
-        <v>0.002555927348372352</v>
+        <v>0.002622326128932443</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006475769379070399</v>
+        <v>0.006579981525616951</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -4495,28 +4495,28 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>267</v>
+        <v>125</v>
       </c>
       <c r="K31">
-        <v>0.002555927348372352</v>
+        <v>0.002603002662876138</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4524,7 +4524,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006475769379070399</v>
+        <v>0.006579981525616951</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -4545,28 +4545,28 @@
         <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="K32">
-        <v>0.00248823798489564</v>
+        <v>0.002555927348372352</v>
       </c>
       <c r="L32">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4574,7 +4574,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006105413921787837</v>
+        <v>0.006203666075794601</v>
       </c>
       <c r="C33">
         <v>8</v>
@@ -4595,28 +4595,28 @@
         <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="K33">
-        <v>0.00247609116561123</v>
+        <v>0.002555927348372352</v>
       </c>
       <c r="L33">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4624,7 +4624,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006105413921787837</v>
+        <v>0.006203666075794601</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -4645,28 +4645,28 @@
         <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K34">
-        <v>0.002366618090015125</v>
+        <v>0.00248823798489564</v>
       </c>
       <c r="L34">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="M34">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4674,7 +4674,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006105413921787837</v>
+        <v>0.006203666075794601</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -4695,28 +4695,28 @@
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K35">
-        <v>0.002364622074943608</v>
+        <v>0.00247609116561123</v>
       </c>
       <c r="L35">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="M35">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>282</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4724,7 +4724,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -4745,28 +4745,28 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="K36">
-        <v>0.002345479793386728</v>
+        <v>0.002364622074943608</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>97</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4774,7 +4774,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -4795,16 +4795,16 @@
         <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K37">
-        <v>0.002271001044663203</v>
+        <v>0.002345479793386728</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4824,7 +4824,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -4845,7 +4845,7 @@
         <v>29</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K38">
         <v>0.002271001044663203</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4874,7 +4874,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -4895,7 +4895,7 @@
         <v>25</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K39">
         <v>0.002271001044663203</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4924,7 +4924,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -4945,28 +4945,28 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="K40">
-        <v>0.002259553822579</v>
+        <v>0.002271001044663203</v>
       </c>
       <c r="L40">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -4974,7 +4974,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -4995,28 +4995,28 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K41">
-        <v>0.002259328762297779</v>
+        <v>0.002259553822579</v>
       </c>
       <c r="L41">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="M41">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>214</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5024,7 +5024,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -5045,28 +5045,28 @@
         <v>12</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>272</v>
+        <v>120</v>
       </c>
       <c r="K42">
-        <v>0.002193995448613617</v>
+        <v>0.002259328762297779</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>24</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5074,7 +5074,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -5095,28 +5095,28 @@
         <v>9</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="K43">
-        <v>0.002182719958744621</v>
+        <v>0.002193995448613617</v>
       </c>
       <c r="L43">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="N43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>207</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5124,7 +5124,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -5145,28 +5145,28 @@
         <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
       <c r="K44">
-        <v>0.002114186915155133</v>
+        <v>0.002182719958744621</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>44</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5174,7 +5174,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.00571109177494248</v>
+        <v>0.005802998249393944</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -5195,7 +5195,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K45">
         <v>0.002114186915155133</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>115</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5224,7 +5224,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005287443556887443</v>
+        <v>0.005372532418233842</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5245,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K46">
         <v>0.002114186915155133</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>59</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5274,7 +5274,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005287443556887443</v>
+        <v>0.005372532418233842</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5295,16 +5295,16 @@
         <v>2</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K47">
-        <v>0.002031245085135983</v>
+        <v>0.002114186915155133</v>
       </c>
       <c r="L47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5324,7 +5324,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005287443556887443</v>
+        <v>0.005372532418233842</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5345,7 +5345,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K48">
         <v>0.002031245085135983</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5374,7 +5374,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005287443556887443</v>
+        <v>0.005372532418233842</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -5395,7 +5395,7 @@
         <v>7</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K49">
         <v>0.002031245085135983</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5424,7 +5424,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005287443556887443</v>
+        <v>0.005372532418233842</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K50">
         <v>0.002031245085135983</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5474,7 +5474,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004826753512737672</v>
+        <v>0.004904428660657425</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -5495,28 +5495,28 @@
         <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>122</v>
+        <v>279</v>
       </c>
       <c r="K51">
-        <v>0.002029396201474857</v>
+        <v>0.002031245085135983</v>
       </c>
       <c r="L51">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M51">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5524,7 +5524,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004826753512737672</v>
+        <v>0.004904428660657425</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5545,7 +5545,7 @@
         <v>75</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K52">
         <v>0.002006537380233645</v>
@@ -5574,7 +5574,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004826753512737672</v>
+        <v>0.004904428660657425</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -5595,7 +5595,7 @@
         <v>7</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K53">
         <v>0.0019684183978015</v>
@@ -5624,7 +5624,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004317179586046932</v>
+        <v>0.0043866543504113</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -5674,7 +5674,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004317179586046932</v>
+        <v>0.0043866543504113</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -5724,7 +5724,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004317179586046932</v>
+        <v>0.0043866543504113</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -5774,7 +5774,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004317179586046932</v>
+        <v>0.0043866543504113</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -5824,7 +5824,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003777290142084667</v>
+        <v>0.003838076666556648</v>
       </c>
       <c r="C58">
         <v>25</v>
@@ -5874,7 +5874,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -5895,7 +5895,7 @@
         <v>3</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K59">
         <v>0.001930561936960548</v>
@@ -5924,7 +5924,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -5945,7 +5945,7 @@
         <v>8</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K60">
         <v>0.001905346141244635</v>
@@ -5974,7 +5974,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -5995,7 +5995,7 @@
         <v>36</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K61">
         <v>0.001873480657052492</v>
@@ -6024,7 +6024,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6074,7 +6074,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6124,7 +6124,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6174,7 +6174,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.00373878719421623</v>
+        <v>0.00379895410507771</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6224,7 +6224,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003521549894596431</v>
+        <v>0.00357822088644379</v>
       </c>
       <c r="C66">
         <v>21</v>
@@ -6274,7 +6274,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6324,7 +6324,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6345,7 +6345,7 @@
         <v>36</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K68">
         <v>0.001840948116691479</v>
@@ -6374,7 +6374,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6424,7 +6424,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6474,7 +6474,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6524,7 +6524,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6574,7 +6574,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -6624,7 +6624,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6674,7 +6674,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6724,7 +6724,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6745,7 +6745,7 @@
         <v>14</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K76">
         <v>0.001754418531099778</v>
@@ -6774,7 +6774,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6824,7 +6824,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6874,7 +6874,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6924,7 +6924,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -6974,7 +6974,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003052706960893918</v>
+        <v>0.0031018330378973</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7024,7 +7024,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003047067011790263</v>
+        <v>0.003096102327191725</v>
       </c>
       <c r="C82">
         <v>19</v>
@@ -7074,7 +7074,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002494319061816058</v>
+        <v>0.002534459210173401</v>
       </c>
       <c r="C83">
         <v>7</v>
@@ -7124,7 +7124,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002445221982906818</v>
+        <v>0.002484572030245612</v>
       </c>
       <c r="C84">
         <v>11</v>
@@ -7174,25 +7174,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002244491703906403</v>
+        <v>0.002259516270428504</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E85">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F85">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>99</v>
+        <v>676</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>306</v>
@@ -7224,28 +7224,28 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002223730601459451</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>676</v>
+        <v>26</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K86">
         <v>0.001643792423255401</v>
@@ -7274,7 +7274,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7292,10 +7292,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K87">
         <v>0.001575862616543993</v>
@@ -7324,7 +7324,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7374,7 +7374,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>308</v>
@@ -7424,7 +7424,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>309</v>
@@ -7474,7 +7474,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>310</v>
@@ -7524,7 +7524,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>311</v>
@@ -7574,7 +7574,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>312</v>
@@ -7624,7 +7624,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>313</v>
@@ -7674,7 +7674,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>314</v>
@@ -7724,7 +7724,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>315</v>
@@ -7774,7 +7774,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>316</v>
@@ -7824,7 +7824,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7842,10 +7842,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K98">
         <v>0.00150656386530405</v>
@@ -7874,7 +7874,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K99">
         <v>0.001471850263987211</v>
@@ -7924,7 +7924,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7942,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>317</v>
@@ -7974,7 +7974,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>318</v>
@@ -8024,7 +8024,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8042,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>319</v>
@@ -8074,7 +8074,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>320</v>
@@ -8124,7 +8124,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>321</v>
@@ -8174,7 +8174,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>322</v>
@@ -8224,7 +8224,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>323</v>
@@ -8274,7 +8274,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>324</v>
@@ -8324,7 +8324,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>325</v>
@@ -8374,7 +8374,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>326</v>
@@ -8424,7 +8424,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8442,10 +8442,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K110">
         <v>0.001377602009605766</v>
@@ -8474,7 +8474,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>327</v>
@@ -8524,7 +8524,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>328</v>
@@ -8574,7 +8574,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002158589793023466</v>
+        <v>0.00219332717520565</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>329</v>
@@ -8624,25 +8624,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002158589793023466</v>
+        <v>0.00217209937419739</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>330</v>
@@ -8674,25 +8674,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002137698192763024</v>
+        <v>0.002112764810868869</v>
       </c>
       <c r="C115">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E115">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F115">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>331</v>
@@ -8724,25 +8724,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002079303355812881</v>
+        <v>0.001786743811280959</v>
       </c>
       <c r="C116">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="E116">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F116">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>214</v>
+        <v>3037</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>332</v>
@@ -8774,25 +8774,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001961919829538972</v>
+        <v>0.00174134010218989</v>
       </c>
       <c r="C117">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="E117">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F117">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>333</v>
@@ -8824,13 +8824,13 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001758445797498177</v>
+        <v>0.001725981545301313</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
       <c r="D118">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E118">
         <v>0.98</v>
@@ -8842,7 +8842,7 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>3037</v>
+        <v>419</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>334</v>
@@ -8874,25 +8874,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001713761181305338</v>
+        <v>0.001716639693728369</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="E119">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F119">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>335</v>
@@ -8924,25 +8924,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.00169864586950415</v>
+        <v>0.001714515706447806</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E120">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F120">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>419</v>
+        <v>27</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>336</v>
@@ -8974,25 +8974,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001689451971903622</v>
+        <v>0.001551216374019643</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="E121">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F121">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>294</v>
+        <v>9</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>337</v>
@@ -9024,25 +9024,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.00168736162381686</v>
+        <v>0.001539778553069173</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D122">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="E122">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F122">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>338</v>
@@ -9074,25 +9074,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.00152664858648629</v>
+        <v>0.001514859127370724</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E123">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F123">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>339</v>
@@ -9124,25 +9124,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001515391914961304</v>
+        <v>0.001486377648569936</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D124">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E124">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F124">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>340</v>
@@ -9174,25 +9174,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001490867157064373</v>
+        <v>0.001327903606066458</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D125">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E125">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F125">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>341</v>
@@ -9224,25 +9224,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001462836760995519</v>
+        <v>0.001321325110800713</v>
       </c>
       <c r="C126">
         <v>3</v>
       </c>
       <c r="D126">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E126">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F126">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>342</v>
@@ -9274,25 +9274,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001306872591821761</v>
+        <v>0.001300700846270814</v>
       </c>
       <c r="C127">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D127">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E127">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F127">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>343</v>
@@ -9324,25 +9324,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001300398285163541</v>
+        <v>0.001265727354299431</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E128">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F128">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>344</v>
@@ -9374,25 +9374,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.00128010066271755</v>
+        <v>0.001259693224016057</v>
       </c>
       <c r="C129">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E129">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F129">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>345</v>
@@ -9424,25 +9424,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001245681072403242</v>
+        <v>0.001238442923512363</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E130">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F130">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>346</v>
@@ -9474,28 +9474,28 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001239742509207241</v>
+        <v>0.001225529976038882</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D131">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E131">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F131">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K131">
         <v>0.001292328917440607</v>
@@ -9524,28 +9524,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001218828765792899</v>
+        <v>0.001171931191326148</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E132">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F132">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>12</v>
+        <v>589</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K132">
         <v>0.001292328917440607</v>
@@ -9574,28 +9574,28 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001206120330439887</v>
+        <v>0.001164666394734575</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E133">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F133">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K133">
         <v>0.001292328917440607</v>
@@ -9624,28 +9624,28 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001153370430239284</v>
+        <v>0.001152820318984863</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E134">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F134">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>589</v>
+        <v>80</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K134">
         <v>0.001255420716066129</v>
@@ -9674,28 +9674,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001146220691728662</v>
+        <v>0.001126522234066131</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D135">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E135">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F135">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K135">
         <v>0.001255420716066129</v>
@@ -9724,28 +9724,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.00113456223124462</v>
+        <v>0.001105178907693567</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E136">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F136">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K136">
         <v>0.001222999650004676</v>
@@ -9774,28 +9774,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.00110868064899672</v>
+        <v>0.001062927709640827</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>60</v>
       </c>
       <c r="E137">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F137">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K137">
         <v>0.001215046059705188</v>
@@ -9824,28 +9824,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001087675353034586</v>
+        <v>0.001021051055875067</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E138">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F138">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K138">
         <v>0.001199346363108453</v>
@@ -9874,13 +9874,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001046093319177232</v>
+        <v>0.001007907316227009</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E139">
         <v>0.98</v>
@@ -9892,10 +9892,10 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K139">
         <v>0.001193745341733555</v>
@@ -9924,28 +9924,28 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001004879897665563</v>
+        <v>0.001005875104616179</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D140">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E140">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F140">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K140">
         <v>0.001180521744373634</v>
@@ -9974,13 +9974,13 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.0009919443253682862</v>
+        <v>0.001001112510460447</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E141">
         <v>0.98</v>
@@ -9992,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>64</v>
+        <v>817</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>347</v>
@@ -10024,25 +10024,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.0009899442994305274</v>
+        <v>0.0009982708747627103</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E142">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F142">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>348</v>
@@ -10074,25 +10074,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0009852571340823338</v>
+        <v>0.0009862033522444154</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E143">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F143">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>817</v>
+        <v>88</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>349</v>
@@ -10124,25 +10124,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0009824605035194307</v>
+        <v>0.0009487549268721523</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E144">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F144">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>350</v>
@@ -10174,25 +10174,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0009705841034868501</v>
+        <v>0.0009320089277326821</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E145">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F145">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>351</v>
@@ -10224,25 +10224,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0009337287771647346</v>
+        <v>0.0009050956614671716</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E146">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F146">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>352</v>
@@ -10274,25 +10274,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0009172479970854694</v>
+        <v>0.0008835570402079358</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E147">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F147">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>106</v>
+        <v>1122</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>353</v>
@@ -10324,13 +10324,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0008907609765832924</v>
+        <v>0.0008545348681429421</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E148">
         <v>0.97</v>
@@ -10342,7 +10342,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>354</v>
@@ -10374,25 +10374,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0008695634787673886</v>
+        <v>0.0008545348681429421</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E149">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F149">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>1122</v>
+        <v>49</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>355</v>
@@ -10424,7 +10424,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.0008410009528027009</v>
+        <v>0.0008545348681429421</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10442,7 +10442,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>356</v>
@@ -10474,25 +10474,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0008410009528027009</v>
+        <v>0.0008467916805446631</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
         <v>33</v>
       </c>
       <c r="E151">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F151">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>357</v>
@@ -10524,13 +10524,13 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0008410009528027009</v>
+        <v>0.0008434127440330098</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E152">
         <v>0.97</v>
@@ -10542,7 +10542,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>358</v>
@@ -10574,25 +10574,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0008333803999257488</v>
+        <v>0.0008434127440330098</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E153">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F153">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>359</v>
@@ -10624,25 +10624,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0008300549781884992</v>
+        <v>0.0008408269815383358</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D154">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E154">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F154">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>360</v>
@@ -10674,25 +10674,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0008300549781884992</v>
+        <v>0.0008278576363591249</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D155">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E155">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F155">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>361</v>
@@ -10724,25 +10724,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0008275101683711208</v>
+        <v>0.0008199865087898129</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E156">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F156">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>362</v>
@@ -10774,13 +10774,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0008147462285255216</v>
+        <v>0.0008095491455542186</v>
       </c>
       <c r="C157">
         <v>4</v>
       </c>
       <c r="D157">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E157">
         <v>0.9</v>
@@ -10792,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>363</v>
@@ -10824,25 +10824,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0008069997619596709</v>
+        <v>0.000794805474170486</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E158">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F158">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>364</v>
@@ -10874,25 +10874,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.000796727703143676</v>
+        <v>0.0007814795000544623</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E159">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F159">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>365</v>
@@ -10924,25 +10924,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0007822175384403032</v>
+        <v>0.0007602875409971405</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160">
         <v>28</v>
       </c>
       <c r="E160">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F160">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>366</v>
@@ -10974,25 +10974,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0007691026178602276</v>
+        <v>0.0007602875409971405</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E161">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F161">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>367</v>
@@ -11024,7 +11024,7 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0007482462918946239</v>
+        <v>0.0007602875409971405</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -11042,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>368</v>
@@ -11074,13 +11074,13 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0007482462918946239</v>
+        <v>0.0007411978809976709</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
       <c r="D163">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E163">
         <v>0.93</v>
@@ -11092,7 +11092,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>369</v>
@@ -11124,25 +11124,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0007482462918946239</v>
+        <v>0.0007375502245183793</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E164">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F164">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>370</v>
@@ -11174,25 +11174,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0007294589692858663</v>
+        <v>0.0007058841050057391</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E165">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F165">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>371</v>
@@ -11224,25 +11224,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0007258690835024485</v>
+        <v>0.0007058841050057391</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E166">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F166">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>372</v>
@@ -11274,7 +11274,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0006947044842865392</v>
+        <v>0.0007058841050057391</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11292,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>373</v>
@@ -11324,13 +11324,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0006947044842865392</v>
+        <v>0.0006886099029917874</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E168">
         <v>0.95</v>
@@ -11342,7 +11342,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>374</v>
@@ -11374,13 +11374,13 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0006947044842865392</v>
+        <v>0.0006704646605065864</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E169">
         <v>0.95</v>
@@ -11392,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>375</v>
@@ -11424,13 +11424,13 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0006777038668814113</v>
+        <v>0.0006513647384547614</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E170">
         <v>0.95</v>
@@ -11442,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>376</v>
@@ -11474,25 +11474,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0006598460043321005</v>
+        <v>0.0006099026661447552</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E171">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F171">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>377</v>
@@ -11524,25 +11524,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.000641048582198876</v>
+        <v>0.0006099026661447552</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E172">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F172">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>378</v>
@@ -11574,25 +11574,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0006002431761027295</v>
+        <v>0.0006039803721303298</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D173">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E173">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F173">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>379</v>
@@ -11624,13 +11624,13 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0006002431761027295</v>
+        <v>0.0005873016204413004</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E174">
         <v>0.9399999999999999</v>
@@ -11642,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>380</v>
@@ -11674,25 +11674,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0005944146779400585</v>
+        <v>0.0005873016204413004</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E175">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F175">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>381</v>
@@ -11724,25 +11724,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0005780000802624748</v>
+        <v>0.000577048805614949</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D176">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E176">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="F176">
-        <v>0.06000000000000005</v>
+        <v>0.16</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>382</v>
@@ -11774,25 +11774,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0005780000802624748</v>
+        <v>0.0005632611170330655</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E177">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F177">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>383</v>
@@ -11824,25 +11824,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0005679096470229165</v>
+        <v>0.0005632611170330655</v>
       </c>
       <c r="C178">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E178">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="F178">
-        <v>0.16</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>384</v>
@@ -11874,7 +11874,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.00055434032449836</v>
+        <v>0.0005632611170330655</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -11892,7 +11892,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>385</v>
@@ -11924,7 +11924,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.00055434032449836</v>
+        <v>0.0005632611170330655</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -11942,7 +11942,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>386</v>
@@ -11974,25 +11974,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.00055434032449836</v>
+        <v>0.0005534180160082958</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D181">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E181">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="F181">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>266</v>
+        <v>56</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>387</v>
@@ -12024,13 +12024,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.00055434032449836</v>
+        <v>0.0005376044758907233</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E182">
         <v>0.93</v>
@@ -12042,10 +12042,10 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K182">
         <v>0.001126865468245245</v>
@@ -12074,28 +12074,28 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0005446531161128739</v>
+        <v>0.0005101218950084408</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E183">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="F183">
-        <v>0.13</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K183">
         <v>0.001104106627113167</v>
@@ -12124,28 +12124,28 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0005290900269963773</v>
+        <v>0.0005101218950084408</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E184">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F184">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K184">
         <v>0.001074913899344189</v>
@@ -12174,7 +12174,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0005020427085438193</v>
+        <v>0.0005101218950084408</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12192,10 +12192,10 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K185">
         <v>0.00106530152544711</v>
@@ -12224,25 +12224,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0005020427085438193</v>
+        <v>0.0004992229019404055</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D186">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E186">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F186">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>159</v>
+        <v>947</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>388</v>
@@ -12274,25 +12274,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0005020427085438193</v>
+        <v>0.0004486212140420787</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E187">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F187">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>389</v>
@@ -12324,25 +12324,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0004913163310763588</v>
+        <v>0.0004410928354259151</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E188">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F188">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>947</v>
+        <v>94</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>390</v>
@@ -12374,25 +12374,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0004415160603999852</v>
+        <v>0.0004139288181795624</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E189">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F189">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>391</v>
@@ -12424,25 +12424,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0004341069144127509</v>
+        <v>0.0004139288181795624</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E190">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F190">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>392</v>
@@ -12474,25 +12474,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0004073731142627608</v>
+        <v>0.0003760292576071359</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E191">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F191">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>393</v>
@@ -12524,25 +12524,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0004073731142627608</v>
+        <v>0.0003760292576071359</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E192">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F192">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>394</v>
@@ -12574,7 +12574,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0003700737977100245</v>
+        <v>0.0003760292576071359</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12592,7 +12592,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>395</v>
@@ -12624,7 +12624,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0003700737977100245</v>
+        <v>0.0003760292576071359</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -12642,7 +12642,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>396</v>
@@ -12674,25 +12674,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0003700737977100245</v>
+        <v>0.0003348878942578279</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E195">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F195">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>397</v>
@@ -12724,25 +12724,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0003700737977100245</v>
+        <v>0.0003343595029756998</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E196">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F196">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>398</v>
@@ -12774,25 +12774,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0003295840212640826</v>
+        <v>0.0003343595029756998</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E197">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F197">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>399</v>
@@ -12824,7 +12824,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003290639985145275</v>
+        <v>0.0003343595029756998</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -12842,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>400</v>
@@ -12874,7 +12874,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0003290639985145275</v>
+        <v>0.0003343595029756998</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -12892,7 +12892,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>401</v>
@@ -12924,25 +12924,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0003290639985145275</v>
+        <v>0.0002953217341893646</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F200">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>402</v>
@@ -12974,25 +12974,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0003290639985145275</v>
+        <v>0.0002882264768209191</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E201">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F201">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>403</v>
@@ -13024,25 +13024,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0002906445004126575</v>
+        <v>0.0002882264768209191</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E202">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F202">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>404</v>
@@ -13074,7 +13074,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0002836616160041949</v>
+        <v>0.0002882264768209191</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13092,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>405</v>
@@ -13124,7 +13124,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0002836616160041949</v>
+        <v>0.0002882264768209191</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13142,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>406</v>
@@ -13174,7 +13174,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0002836616160041949</v>
+        <v>0.0002882264768209191</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13192,7 +13192,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>407</v>
@@ -13224,25 +13224,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002836616160041949</v>
+        <v>0.0002534326812636281</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F206">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>408</v>
@@ -13274,25 +13274,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002836616160041949</v>
+        <v>0.0002534326812636281</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E207">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F207">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>409</v>
@@ -13324,25 +13324,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0002494188761158919</v>
+        <v>0.0002368015009669936</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F208">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>410</v>
@@ -13374,25 +13374,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0002494188761158919</v>
+        <v>0.0002368015009669936</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F209">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>411</v>
@@ -13424,25 +13424,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.000233051096406564</v>
+        <v>0.0002091594263343956</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E210">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F210">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>412</v>
@@ -13474,25 +13474,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.000233051096406564</v>
+        <v>0.0001792039674958003</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F211">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>413</v>
@@ -13524,25 +13524,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0002058468102269045</v>
+        <v>0.0001792039674958003</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E212">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F212">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>414</v>
@@ -13574,7 +13574,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0001763657786574746</v>
+        <v>0.0001792039674958003</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13592,7 +13592,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>415</v>
@@ -13624,7 +13624,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0001763657786574746</v>
+        <v>0.0001792039674958003</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -13642,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>416</v>
@@ -13674,7 +13674,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0001763657786574746</v>
+        <v>0.0001792039674958003</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>417</v>
@@ -13724,25 +13724,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0001763657786574746</v>
+        <v>0.0001626249721446256</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E216">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F216">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>418</v>
@@ -13774,25 +13774,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0001763657786574746</v>
+        <v>0.0001149932205937386</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F217">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>419</v>
@@ -13824,13 +13824,13 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0001600493574011365</v>
+        <v>0.0001149932205937386</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E218">
         <v>0.75</v>
@@ -13842,7 +13842,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>420</v>
@@ -13874,7 +13874,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0001131719859428935</v>
+        <v>0.0001149932205937386</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>421</v>
@@ -13924,7 +13924,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0001131719859428935</v>
+        <v>0.0001149932205937386</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -13942,7 +13942,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>422</v>
@@ -13974,7 +13974,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0001131719859428935</v>
+        <v>0.0001149932205937386</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -13992,7 +13992,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>423</v>
@@ -14024,7 +14024,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001131719859428935</v>
+        <v>0.0001149932205937386</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14042,7 +14042,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>424</v>
@@ -14074,25 +14074,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001131719859428935</v>
+        <v>6.619285538861724E-05</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E223">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F223">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>425</v>
@@ -14124,25 +14124,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0001131719859428935</v>
+        <v>6.619285538861724E-05</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E224">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F224">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>426</v>
@@ -14174,25 +14174,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>6.514450904915751E-05</v>
+        <v>4.680541691139103E-05</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
         <v>3</v>
       </c>
       <c r="E225">
+        <v>0.67</v>
+      </c>
+      <c r="F225">
         <v>0.33</v>
       </c>
-      <c r="F225">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>427</v>
@@ -14224,25 +14224,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>6.514450904915751E-05</v>
+        <v>4.680541691139103E-05</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
         <v>3</v>
       </c>
       <c r="E226">
+        <v>0.67</v>
+      </c>
+      <c r="F226">
         <v>0.33</v>
       </c>
-      <c r="F226">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>428</v>
@@ -14274,7 +14274,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>4.606412410572695E-05</v>
+        <v>4.680541691139103E-05</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14292,7 +14292,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>429</v>
@@ -14324,7 +14324,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>4.606412410572695E-05</v>
+        <v>4.680541691139103E-05</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14342,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>430</v>
@@ -14374,7 +14374,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>4.606412410572695E-05</v>
+        <v>4.680541691139103E-05</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14392,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>431</v>
@@ -14424,7 +14424,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>4.606412410572695E-05</v>
+        <v>4.680541691139103E-05</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14442,7 +14442,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>432</v>
@@ -14474,7 +14474,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>4.606412410572695E-05</v>
+        <v>4.680541691139103E-05</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14492,7 +14492,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>433</v>
@@ -14524,7 +14524,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>4.606412410572695E-05</v>
+        <v>4.680541691139103E-05</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14542,7 +14542,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>434</v>
@@ -14574,7 +14574,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>4.606412410572695E-05</v>
+        <v>4.680541691139103E-05</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14592,7 +14592,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>435</v>
@@ -14624,25 +14624,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>4.606412410572695E-05</v>
+        <v>0</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F234">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>436</v>
@@ -14674,25 +14674,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>4.606412410572695E-05</v>
+        <v>0</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F235">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>437</v>
@@ -14742,7 +14742,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>438</v>
@@ -14792,7 +14792,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>439</v>
@@ -14842,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>440</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>441</v>
@@ -14942,7 +14942,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>442</v>
@@ -14992,7 +14992,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>443</v>
@@ -15042,7 +15042,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>444</v>
@@ -15092,7 +15092,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>445</v>
@@ -15142,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>446</v>
@@ -15170,30 +15170,6 @@
       </c>
     </row>
     <row r="245" spans="1:17">
-      <c r="A245" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-      <c r="D245">
-        <v>2</v>
-      </c>
-      <c r="E245">
-        <v>0.5</v>
-      </c>
-      <c r="F245">
-        <v>0.5</v>
-      </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245">
-        <v>46</v>
-      </c>
       <c r="J245" s="1" t="s">
         <v>447</v>
       </c>
@@ -15220,30 +15196,6 @@
       </c>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246">
-        <v>2</v>
-      </c>
-      <c r="E246">
-        <v>0.5</v>
-      </c>
-      <c r="F246">
-        <v>0.5</v>
-      </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246">
-        <v>27</v>
-      </c>
       <c r="J246" s="1" t="s">
         <v>448</v>
       </c>
@@ -15297,7 +15249,7 @@
     </row>
     <row r="248" spans="1:17">
       <c r="J248" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K248">
         <v>0.0009217884831447437</v>
@@ -15323,7 +15275,7 @@
     </row>
     <row r="249" spans="1:17">
       <c r="J249" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K249">
         <v>0.00089127293075895</v>
@@ -15349,7 +15301,7 @@
     </row>
     <row r="250" spans="1:17">
       <c r="J250" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K250">
         <v>0.0008647913459070802</v>
@@ -15375,7 +15327,7 @@
     </row>
     <row r="251" spans="1:17">
       <c r="J251" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K251">
         <v>0.0008647913459070802</v>
@@ -15401,7 +15353,7 @@
     </row>
     <row r="252" spans="1:17">
       <c r="J252" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K252">
         <v>0.0008647913459070802</v>
@@ -18963,7 +18915,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K389">
         <v>0.0008232970263944722</v>
@@ -18989,7 +18941,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K390">
         <v>0.0008182641037999222</v>
@@ -19015,7 +18967,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K391">
         <v>0.0007813056717109679</v>
@@ -19041,7 +18993,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K392">
         <v>0.0007388032238540126</v>
@@ -19067,7 +19019,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K393">
         <v>0.0007328546279379931</v>
@@ -19093,7 +19045,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K394">
         <v>0.0007328546279379931</v>
@@ -19119,7 +19071,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K395">
         <v>0.0007328546279379931</v>
@@ -19145,7 +19097,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K396">
         <v>0.0007005795571284147</v>
@@ -19171,7 +19123,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K397">
         <v>0.0006639650184767235</v>
@@ -19197,7 +19149,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K398">
         <v>0.0006522120345502434</v>
@@ -19223,7 +19175,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K399">
         <v>0.0006522120345502434</v>
@@ -19249,7 +19201,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K400">
         <v>0.000640199794168657</v>
@@ -19275,7 +19227,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K401">
         <v>0.0006357991132460867</v>
@@ -19301,7 +19253,7 @@
     </row>
     <row r="402" spans="10:17">
       <c r="J402" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K402">
         <v>0.0006081001542460391</v>
@@ -19327,7 +19279,7 @@
     </row>
     <row r="403" spans="10:17">
       <c r="J403" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K403">
         <v>0.0006081001542460391</v>
@@ -19353,7 +19305,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K404">
         <v>0.00060239071996116</v>
@@ -26997,7 +26949,7 @@
     </row>
     <row r="698" spans="10:17">
       <c r="J698" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K698">
         <v>0.0005634327341226226</v>
@@ -27023,7 +26975,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K699">
         <v>0.0005634327341226226</v>
@@ -27049,7 +27001,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K700">
         <v>0.0005634327341226226</v>
@@ -27075,7 +27027,7 @@
     </row>
     <row r="701" spans="10:17">
       <c r="J701" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K701">
         <v>0.0005634327341226226</v>
@@ -27101,7 +27053,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K702">
         <v>0.0005182064770388985</v>
@@ -27153,7 +27105,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K704">
         <v>0.0004724250005970929</v>
@@ -27179,7 +27131,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K705">
         <v>0.0004724250005970929</v>
@@ -27205,7 +27157,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K706">
         <v>0.0004724250005970929</v>
@@ -27231,7 +27183,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K707">
         <v>0.0004372620870450523</v>
@@ -27257,7 +27209,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K708">
         <v>0.0003820110702734644</v>
@@ -27283,7 +27235,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K709">
         <v>0.0003792696503011736</v>
@@ -27309,7 +27261,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K710">
         <v>0.0003584905494777349</v>
@@ -27335,7 +27287,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K711">
         <v>0.0003319825092383617</v>
@@ -27361,7 +27313,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K712">
         <v>0.0003319825092383617</v>
@@ -27387,7 +27339,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K713">
         <v>0.000326917681759293</v>
@@ -27413,7 +27365,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K714">
         <v>0.0003006456793877962</v>
@@ -27439,7 +27391,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K715">
         <v>0.0002843380074504679</v>
@@ -27465,7 +27417,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K716">
         <v>0.0002843380074504679</v>
@@ -27491,7 +27443,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K717">
         <v>0.0002843380074504679</v>
@@ -27517,7 +27469,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K718">
         <v>0.0002843380074504679</v>
@@ -27543,7 +27495,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K719">
         <v>0.0002364999078824323</v>
@@ -27569,7 +27521,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K720">
         <v>0.0002364999078824323</v>
@@ -27595,7 +27547,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K721">
         <v>0.0002364999078824323</v>
@@ -27621,7 +27573,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K722">
         <v>0.0002364999078824323</v>
@@ -27673,7 +27625,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K724">
         <v>0.0002001947737899901</v>
@@ -27699,7 +27651,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K725">
         <v>0.0001887460115665763</v>
@@ -27725,7 +27677,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K726">
         <v>0.0001887460115665763</v>
@@ -27751,7 +27703,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K727">
         <v>0.0001887460115665763</v>
@@ -27777,7 +27729,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K728">
         <v>0.0001887460115665763</v>
@@ -27803,7 +27755,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K729">
         <v>0.0001887460115665763</v>
@@ -27829,7 +27781,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K730">
         <v>0.0001674826993328362</v>
@@ -27855,7 +27807,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K731">
         <v>0.0001415590821050089</v>
@@ -27881,7 +27833,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K732">
         <v>0.0001415590821050089</v>
@@ -27907,7 +27859,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K733">
         <v>0.0001355067405372218</v>
@@ -27933,7 +27885,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K734">
         <v>0.0001355067405372218</v>
@@ -27959,7 +27911,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K735">
         <v>0.0001046115770141024</v>
@@ -27985,7 +27937,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K736">
         <v>9.581773513035554E-05</v>
@@ -28011,7 +27963,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K737">
         <v>9.581773513035554E-05</v>
@@ -28037,7 +27989,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K738">
         <v>9.581773513035554E-05</v>
@@ -28063,7 +28015,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K739">
         <v>9.581773513035554E-05</v>
@@ -28089,7 +28041,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K740">
         <v>9.581773513035554E-05</v>
@@ -28115,7 +28067,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K741">
         <v>7.530367086209436E-05</v>
@@ -28141,7 +28093,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K742">
         <v>5.324773631482674E-05</v>
@@ -28167,7 +28119,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K743">
         <v>5.324773631482674E-05</v>
@@ -28193,7 +28145,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K744">
         <v>5.324773631482674E-05</v>
@@ -28219,7 +28171,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K745">
         <v>5.324773631482674E-05</v>
@@ -28245,7 +28197,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K746">
         <v>5.324773631482674E-05</v>
@@ -28271,7 +28223,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K747">
         <v>5.324773631482674E-05</v>
@@ -28297,7 +28249,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K748">
         <v>1.769617484974793E-05</v>
@@ -28323,7 +28275,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K749">
         <v>1.769617484974793E-05</v>
@@ -28349,7 +28301,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K750">
         <v>1.769617484974793E-05</v>
@@ -28375,7 +28327,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K751">
         <v>1.769617484974793E-05</v>
@@ -28401,7 +28353,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K752">
         <v>1.769617484974793E-05</v>
@@ -28427,7 +28379,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K753">
         <v>1.769617484974793E-05</v>
@@ -28453,7 +28405,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K754">
         <v>1.769617484974793E-05</v>
@@ -28479,7 +28431,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K755">
         <v>1.769617484974793E-05</v>
@@ -28505,7 +28457,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K756">
         <v>1.769617484974793E-05</v>
@@ -28531,7 +28483,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K757">
         <v>1.25130852373194E-05</v>
@@ -28557,7 +28509,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K758">
         <v>1.25130852373194E-05</v>
@@ -28583,7 +28535,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K759">
         <v>0</v>
@@ -28609,7 +28561,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K760">
         <v>0</v>
@@ -28635,7 +28587,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K761">
         <v>0</v>
@@ -28661,7 +28613,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K762">
         <v>0</v>
@@ -28687,7 +28639,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K763">
         <v>0</v>
@@ -28713,7 +28665,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K764">
         <v>0</v>
@@ -28739,7 +28691,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K765">
         <v>0</v>
@@ -28765,7 +28717,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K766">
         <v>0</v>
@@ -28791,7 +28743,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K767">
         <v>0</v>
@@ -28817,7 +28769,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K768">
         <v>0</v>
@@ -28843,7 +28795,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K769">
         <v>0</v>
